--- a/pvz2c.xlsx
+++ b/pvz2c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAAD256-A615-4756-A43F-6520C1F27221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A111D6A-7842-441C-8E17-149D95783E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8930" yWindow="0" windowWidth="10360" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Version</t>
   </si>
@@ -183,13 +183,28 @@
   </si>
   <si>
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/pvz2c-tw/3.8.5_1715.apk</t>
+  </si>
+  <si>
+    <t>3.8.7</t>
+  </si>
+  <si>
+    <t>Oct 28, 2025</t>
+  </si>
+  <si>
+    <t>https://pvz2apk-cdn.ditwan.cn/1720/baokai_3.8.7_1720_350_dj2.0-2.0.0.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1rM1kpyTDZimR9_fFRtBxmw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/pvz2c-tw/3.8.7_1720.apk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +228,23 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,17 +263,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -574,18 +609,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="4"/>
     <col min="2" max="2" width="11.90625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="65.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="2"/>
@@ -610,159 +645,181 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{03405A2D-7FF1-4678-BEEF-B343032A688A}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{D4288486-12D3-4327-8DB9-89721A3CBA26}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{A642BC13-0533-4C78-8ED7-38CC4AB3FB50}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
--- a/pvz2c.xlsx
+++ b/pvz2c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A111D6A-7842-441C-8E17-149D95783E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD14A75-22B3-4425-80FB-01F58B94F0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,33 +50,6 @@
     <t>Official Download Link</t>
   </si>
   <si>
-    <t>3.8.5</t>
-  </si>
-  <si>
-    <t>3.8.4</t>
-  </si>
-  <si>
-    <t>3.8.2</t>
-  </si>
-  <si>
-    <t>3.8.1</t>
-  </si>
-  <si>
-    <t>3.8.0</t>
-  </si>
-  <si>
-    <t>3.7.9</t>
-  </si>
-  <si>
-    <t>3.7.8</t>
-  </si>
-  <si>
-    <t>3.7.6</t>
-  </si>
-  <si>
-    <t>3.7.4</t>
-  </si>
-  <si>
     <t>Sep 27, 2025</t>
   </si>
   <si>
@@ -185,9 +158,6 @@
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/pvz2c-tw/3.8.5_1715.apk</t>
   </si>
   <si>
-    <t>3.8.7</t>
-  </si>
-  <si>
     <t>Oct 28, 2025</t>
   </si>
   <si>
@@ -198,6 +168,36 @@
   </si>
   <si>
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/pvz2c-tw/3.8.7_1720.apk</t>
+  </si>
+  <si>
+    <t>3.8.7_1720</t>
+  </si>
+  <si>
+    <t>3.8.5_1715</t>
+  </si>
+  <si>
+    <t>3.8.4_1710</t>
+  </si>
+  <si>
+    <t>3.8.2_1706</t>
+  </si>
+  <si>
+    <t>3.8.0_1700</t>
+  </si>
+  <si>
+    <t>3.8.1_1705</t>
+  </si>
+  <si>
+    <t>3.7.9_1695</t>
+  </si>
+  <si>
+    <t>3.7.4_1685</t>
+  </si>
+  <si>
+    <t>3.7.6_1690</t>
+  </si>
+  <si>
+    <t>3.7.8_1691</t>
   </si>
 </sst>
 </file>
@@ -612,13 +612,13 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.90625" style="4" customWidth="1"/>
     <col min="3" max="3" width="74.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -645,172 +645,172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/pvz2c.xlsx
+++ b/pvz2c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD14A75-22B3-4425-80FB-01F58B94F0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9584D6-6140-4501-825E-516C202BA7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Version</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>3.7.8_1691</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/pvz2c-tw/3.8.8_1725.apk</t>
+  </si>
+  <si>
+    <t>https://pvz2apk-cdn.ditwan.cn/1725/baokai_3.8.8_1725_364_dj2.0-2.0.0.apk</t>
+  </si>
+  <si>
+    <t>Nov 6, 2025</t>
+  </si>
+  <si>
+    <t>3.8.8_1725</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1-ucUeFy4vhyqC3w795bc1Q?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -267,13 +282,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -609,11 +625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:E12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,183 +659,202 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{03405A2D-7FF1-4678-BEEF-B343032A688A}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{D4288486-12D3-4327-8DB9-89721A3CBA26}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{A642BC13-0533-4C78-8ED7-38CC4AB3FB50}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{03405A2D-7FF1-4678-BEEF-B343032A688A}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D4288486-12D3-4327-8DB9-89721A3CBA26}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{A642BC13-0533-4C78-8ED7-38CC4AB3FB50}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{C9BEDE62-E150-4D5E-BBCD-F42A410074E1}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{123FAA2E-16D4-4A10-A9B0-7959F4BCB774}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId6"/>
 </worksheet>
 </file>
--- a/pvz2c.xlsx
+++ b/pvz2c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9584D6-6140-4501-825E-516C202BA7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA28E4A8-68DA-4773-A440-378D67533B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Version</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1-ucUeFy4vhyqC3w795bc1Q?pwd=1234</t>
+  </si>
+  <si>
+    <t>Nov 26, 2025</t>
+  </si>
+  <si>
+    <t>3.9.0_1730</t>
+  </si>
+  <si>
+    <t>https://pvz2apk-cdn.ditwan.cn/1730/baokai_3.9.0_1730_381_dj2.0-3.0.0.apk</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/pvz2c-tw/3.9.0_1730.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1S5lXmSNkOl_XGqDGj-sqjA?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -625,24 +640,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="74.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="90.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="10.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="74.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,202 +674,220 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{03405A2D-7FF1-4678-BEEF-B343032A688A}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{D4288486-12D3-4327-8DB9-89721A3CBA26}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{A642BC13-0533-4C78-8ED7-38CC4AB3FB50}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{C9BEDE62-E150-4D5E-BBCD-F42A410074E1}"/>
-    <hyperlink ref="D2" r:id="rId5" xr:uid="{123FAA2E-16D4-4A10-A9B0-7959F4BCB774}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{03405A2D-7FF1-4678-BEEF-B343032A688A}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{D4288486-12D3-4327-8DB9-89721A3CBA26}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{A642BC13-0533-4C78-8ED7-38CC4AB3FB50}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{C9BEDE62-E150-4D5E-BBCD-F42A410074E1}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{123FAA2E-16D4-4A10-A9B0-7959F4BCB774}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{6CC7F3F9-D455-4DC6-A602-A357C3D996A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId7"/>
 </worksheet>
 </file>
--- a/pvz2c.xlsx
+++ b/pvz2c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA28E4A8-68DA-4773-A440-378D67533B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5DCE84-0591-4EAD-94A2-80CFBD672E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Version</t>
   </si>
@@ -228,6 +228,21 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1S5lXmSNkOl_XGqDGj-sqjA?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1O945fk7r_LX_TeT_VNzQoQ?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://pvz2apk-cdn.ditwan.cn/1735/baokai_3.9.1_1735_387_dj2.0-3.0.0.apk</t>
+  </si>
+  <si>
+    <t>Dec 2, 2025</t>
+  </si>
+  <si>
+    <t>3.9.1_1735</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/pvz2c-tw/3.9.1_1735.apk</t>
   </si>
 </sst>
 </file>
@@ -297,14 +312,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -640,11 +654,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,220 +688,239 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{03405A2D-7FF1-4678-BEEF-B343032A688A}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{D4288486-12D3-4327-8DB9-89721A3CBA26}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{A642BC13-0533-4C78-8ED7-38CC4AB3FB50}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{C9BEDE62-E150-4D5E-BBCD-F42A410074E1}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{123FAA2E-16D4-4A10-A9B0-7959F4BCB774}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{6CC7F3F9-D455-4DC6-A602-A357C3D996A2}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{03405A2D-7FF1-4678-BEEF-B343032A688A}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{D4288486-12D3-4327-8DB9-89721A3CBA26}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{A642BC13-0533-4C78-8ED7-38CC4AB3FB50}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{C9BEDE62-E150-4D5E-BBCD-F42A410074E1}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{123FAA2E-16D4-4A10-A9B0-7959F4BCB774}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{6CC7F3F9-D455-4DC6-A602-A357C3D996A2}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{0292D243-9213-4CDA-9002-3444A03974CE}"/>
+    <hyperlink ref="E2" r:id="rId8" xr:uid="{EDE7707F-F8BA-4BCE-B00A-34B7CDFE61C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId9"/>
 </worksheet>
 </file>
--- a/pvz2c.xlsx
+++ b/pvz2c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5DCE84-0591-4EAD-94A2-80CFBD672E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A4DA6-A5EB-49C8-9047-6A33EDC5C321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Version</t>
   </si>
@@ -243,6 +243,21 @@
   </si>
   <si>
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/pvz2c-tw/3.9.1_1735.apk</t>
+  </si>
+  <si>
+    <t>Dec 3, 2025</t>
+  </si>
+  <si>
+    <t>https://pvz2apk-cdn.ditwan.cn/1737/baokai_3.9.2_1737_389_dj2.0-3.0.0.apk</t>
+  </si>
+  <si>
+    <t>3.9.2_1737</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/pvz2c-tw/3.9.2_1737.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1OBo_rGdG_mRw6lzy_IUHuw?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -312,13 +327,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,11 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,237 +706,250 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{03405A2D-7FF1-4678-BEEF-B343032A688A}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{D4288486-12D3-4327-8DB9-89721A3CBA26}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{A642BC13-0533-4C78-8ED7-38CC4AB3FB50}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{C9BEDE62-E150-4D5E-BBCD-F42A410074E1}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{123FAA2E-16D4-4A10-A9B0-7959F4BCB774}"/>
-    <hyperlink ref="E3" r:id="rId6" xr:uid="{6CC7F3F9-D455-4DC6-A602-A357C3D996A2}"/>
-    <hyperlink ref="D2" r:id="rId7" xr:uid="{0292D243-9213-4CDA-9002-3444A03974CE}"/>
-    <hyperlink ref="E2" r:id="rId8" xr:uid="{EDE7707F-F8BA-4BCE-B00A-34B7CDFE61C7}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{D4288486-12D3-4327-8DB9-89721A3CBA26}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{123FAA2E-16D4-4A10-A9B0-7959F4BCB774}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{0292D243-9213-4CDA-9002-3444A03974CE}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{CB5657C1-F60A-4BF6-B578-2B24A86867C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId5"/>
 </worksheet>
 </file>